--- a/biology/Médecine/Histoire_de_l'anesthésie/Histoire_de_l'anesthésie.xlsx
+++ b/biology/Médecine/Histoire_de_l'anesthésie/Histoire_de_l'anesthésie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histoire_de_l%27anesth%C3%A9sie</t>
+          <t>Histoire_de_l'anesthésie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’anesthésie, en tant que pratique, est née au milieu du XIXe siècle. Cependant, en tant que savoir, elle est bien plus ancienne. On peut la tracer jusqu’à la renaissance des connaissances médicales qui s’est opérée au Moyen Âge par Salerne. Pour anesthésier au Moyen-Age, c'étaient soit les barbiers, soit les chirurgiens qui s'en occupaient. Donc pour anesthésier, soit ils provoquaient une douleur supplémentaire en mettant leur doigt dans la plaie (la douleur devenait tellement forte que le patient s'évanouissait), soit ils faisaient un mélange de deux plantes, la jusquiame et l'opium, qu'ils faisaient sentir au patient (mais cela était trop cher). Pour éviter que le patient se réveille et bouge, ils l'attachaient ou le tenaient, et pour éviter qu'il se morde la langue ils lui mettaient un écartoire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histoire_de_l%27anesth%C3%A9sie</t>
+          <t>Histoire_de_l'anesthésie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Moyen Âge</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’école de médecine créée à Salerne a reçu au VIIIe siècle, du temps de Pépin le Bref, roi des Francs, un apport important du savoir grec, grâce à la venue de Constantin l'Africain, qui avait amené de Carthage d’où il était originaire un grand nombre de textes anciens. Moine au Mont-Cassin, il est à l’origine de la traduction de ces textes en latin.
 L’enseignement de la chirurgie professé à Salerne a été connu dans toute l’Europe grâce à la transcription par Guy d’Arezzo de l’enseignement de son maître, Roger Frugardi, publié en 1170. C’est de cette époque que datent les documents qui relatent différentes compositions d’une préparation anesthésique appliquée tantôt à travers un tissu ou éponge placée sur la figure, principalement sur le nez ou même instillée dans le nez. Cette manière de faire a été connue par la suite sous la dénomination des éponges soporifiques.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Histoire_de_l%27anesth%C3%A9sie</t>
+          <t>Histoire_de_l'anesthésie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Époque moderne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a fallu la courte et courageuse action du chirurgien Félix, pour soigner la fistule anale de Louis XIV, pour qu'en 1686 le roi ouvre aux chirurgiens la voie à un rang meilleur. Il faudra encore une cinquantaine d’années pour la création du collège de chirurgie par lettre patente de Louis XV en 1724. Ce n’est que le 18 décembre 1731 que Maréchal et Lapeyronie le transforment en Académie royale de chirurgie. Cette Académie a disparu, tout comme la Faculté de médecine sous la Convention, le 8 août 1793. L’égalité des droits et des positions entre chirurgiens et médecins résultait d’une déclaration royale du 23 avril 1743 dont les artisans ont été François Rigot et François Lapeyronie, alors premier chirurgien du roi et chef de la chirurgie du royaume.
 Cette accession des chirurgiens à un rang social pratiquement égal à celui des médecins n’est pas restée limitée à la France ; elle a été suivie dans d'autres pays d’Europe. Ainsi, en Angleterre, les grands chirurgiens se sont fait connaître parmi lesquels plusieurs Écossais, en particulier John Hunter.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Histoire_de_l%27anesth%C3%A9sie</t>
+          <t>Histoire_de_l'anesthésie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,11 +601,13 @@
           <t>Période contemporaine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XIXe siècle, les dérivés de l'opium restent le principal anti-douleur efficace, et on utilise ce que Mesmérisme appelle le magnétisme animal et qu’on appellera ensuite -l'hypnose, avant que s'établisse à la fin du siècle l'usage de l'endormissement chimique général à l'éther puis au chloroforme.
-Antoine-Joseph Jobert de Lamballe (1802-1867) fut en France le premier chirurgien à pratiquer des anesthésies générales[1]. 
-Au début du XXe siècle, la cocaïne est utilisée comme anesthésique local, en particulier pour la chirurgie des yeux[2], et ce jusqu'à la mise au point de ses premiers dérivés de synthèse, la Stovaïne d'Ernest Fourneau (1904) et la Novocaïne d'Alfred Einhorn (1906).
+Antoine-Joseph Jobert de Lamballe (1802-1867) fut en France le premier chirurgien à pratiquer des anesthésies générales. 
+Au début du XXe siècle, la cocaïne est utilisée comme anesthésique local, en particulier pour la chirurgie des yeux, et ce jusqu'à la mise au point de ses premiers dérivés de synthèse, la Stovaïne d'Ernest Fourneau (1904) et la Novocaïne d'Alfred Einhorn (1906).
 </t>
         </is>
       </c>
